--- a/Team-Data/2013-14/12-9-2013-14.xlsx
+++ b/Team-Data/2013-14/12-9-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -762,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
@@ -777,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="AO2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP2" t="n">
         <v>22</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>20</v>
       </c>
       <c r="AQ2" t="n">
         <v>19</v>
@@ -798,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>20</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -944,10 +1011,10 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
         <v>22</v>
@@ -968,16 +1035,16 @@
         <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV3" t="n">
         <v>24</v>
@@ -995,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
@@ -1117,10 +1184,10 @@
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
@@ -1147,22 +1214,22 @@
         <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>15</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -1212,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.476</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>33.3</v>
+        <v>32.9</v>
       </c>
       <c r="J5" t="n">
-        <v>80.5</v>
+        <v>79.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.414</v>
+        <v>0.412</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.295</v>
+        <v>0.287</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.707</v>
+        <v>0.702</v>
       </c>
       <c r="R5" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="T5" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U5" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="V5" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA5" t="n">
         <v>22.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1308,13 +1375,13 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -1332,19 +1399,19 @@
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AT5" t="n">
         <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW5" t="n">
         <v>28</v>
@@ -1356,13 +1423,13 @@
         <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1493,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1505,13 +1572,13 @@
         <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1532,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1541,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>25</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1672,7 +1739,7 @@
         <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1687,34 +1754,34 @@
         <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>18</v>
       </c>
       <c r="AR7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
         <v>21</v>
       </c>
       <c r="AW7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX7" t="n">
         <v>16</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.591</v>
+        <v>0.619</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>84.5</v>
+        <v>84</v>
       </c>
       <c r="K8" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="L8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="M8" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.379</v>
+        <v>0.39</v>
       </c>
       <c r="O8" t="n">
         <v>17</v>
@@ -1797,7 +1864,7 @@
         <v>20.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R8" t="n">
         <v>10</v>
@@ -1806,16 +1873,16 @@
         <v>30.8</v>
       </c>
       <c r="T8" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
         <v>14.7</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
         <v>4.4</v>
@@ -1824,28 +1891,28 @@
         <v>3.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
@@ -1854,16 +1921,16 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
         <v>7</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>9</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>8</v>
@@ -1881,37 +1948,37 @@
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -1940,100 +2007,100 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>0.619</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>38.2</v>
+        <v>38.7</v>
       </c>
       <c r="J9" t="n">
-        <v>84.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.451</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M9" t="n">
         <v>21</v>
       </c>
       <c r="N9" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.714</v>
+        <v>0.718</v>
       </c>
       <c r="R9" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S9" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
         <v>46.1</v>
       </c>
       <c r="U9" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V9" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y9" t="n">
         <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.6</v>
+        <v>104</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="n">
         <v>9</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH9" t="n">
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -2051,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2066,16 +2133,16 @@
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2084,13 +2151,13 @@
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -2218,7 +2285,7 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>16</v>
@@ -2230,7 +2297,7 @@
         <v>21</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
@@ -2260,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2272,7 +2339,7 @@
         <v>17</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -2304,112 +2371,112 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.545</v>
+        <v>0.571</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J11" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.469</v>
       </c>
       <c r="L11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.417</v>
+        <v>0.427</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
         <v>22.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="R11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44</v>
+        <v>43.6</v>
       </c>
       <c r="U11" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="X11" t="n">
         <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z11" t="n">
         <v>22.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>103</v>
+        <v>102.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>4</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2427,22 +2494,22 @@
         <v>26</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
         <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>14</v>
@@ -2451,10 +2518,10 @@
         <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>6.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2630,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2764,10 +2831,10 @@
         <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2782,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2791,16 +2858,16 @@
         <v>24</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>9</v>
       </c>
       <c r="AU13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -2850,85 +2917,85 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.619</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
         <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="L14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.328</v>
+        <v>0.336</v>
       </c>
       <c r="O14" t="n">
         <v>19.7</v>
       </c>
       <c r="P14" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.709</v>
+        <v>0.711</v>
       </c>
       <c r="R14" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
-        <v>43.2</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="V14" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X14" t="n">
         <v>4.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z14" t="n">
         <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>104.1</v>
+        <v>104.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
@@ -2940,10 +3007,10 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
         <v>16</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
@@ -2970,10 +3037,10 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>15</v>
@@ -2982,16 +3049,16 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ14" t="n">
         <v>27</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -3131,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>1</v>
@@ -3152,7 +3219,7 @@
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>8</v>
@@ -3167,7 +3234,7 @@
         <v>15</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
         <v>5</v>
@@ -3176,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>29</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.474</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
@@ -3232,115 +3299,115 @@
         <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>80.8</v>
+        <v>80.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.772</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="T16" t="n">
-        <v>41.5</v>
+        <v>40.9</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
         <v>93.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2.8</v>
+        <v>-3.4</v>
       </c>
       <c r="AD16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE16" t="n">
         <v>16</v>
       </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
       <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH16" t="n">
         <v>11</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3349,16 +3416,16 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3507,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3534,19 +3601,19 @@
         <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA17" t="n">
         <v>12</v>
       </c>
-      <c r="BA17" t="n">
-        <v>11</v>
-      </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3674,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3698,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
@@ -3719,16 +3786,16 @@
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>2.8</v>
       </c>
       <c r="AD19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE19" t="n">
         <v>16</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>18</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
@@ -3868,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3883,13 +3950,13 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>6</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>4</v>
@@ -4053,13 +4120,13 @@
         <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>2</v>
@@ -4068,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU20" t="n">
         <v>12</v>
@@ -4086,13 +4153,13 @@
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
         <v>16</v>
       </c>
       <c r="BB20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
         <v>25</v>
@@ -4223,10 +4290,10 @@
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -4271,7 +4338,7 @@
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>4</v>
@@ -4396,10 +4463,10 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4441,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
@@ -4453,7 +4520,7 @@
         <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -4488,106 +4555,106 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.286</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.7</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M23" t="n">
         <v>21.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.356</v>
+        <v>0.36</v>
       </c>
       <c r="O23" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.754</v>
+        <v>0.745</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="V23" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="W23" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>97.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
@@ -4599,46 +4666,46 @@
         <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV23" t="n">
         <v>26</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
         <v>25</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BC23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -4670,91 +4737,91 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.318</v>
+        <v>0.333</v>
       </c>
       <c r="H24" t="n">
         <v>49.4</v>
       </c>
       <c r="I24" t="n">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
       <c r="J24" t="n">
-        <v>89</v>
+        <v>88.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.444</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="M24" t="n">
         <v>22.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.312</v>
+        <v>0.319</v>
       </c>
       <c r="O24" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P24" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.699</v>
+        <v>0.698</v>
       </c>
       <c r="R24" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
         <v>34</v>
       </c>
       <c r="T24" t="n">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="U24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V24" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>102</v>
+        <v>102.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>-7.5</v>
+        <v>-7.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>22</v>
       </c>
       <c r="AF24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG24" t="n">
         <v>24</v>
@@ -4772,55 +4839,55 @@
         <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT24" t="n">
         <v>5</v>
       </c>
-      <c r="AT24" t="n">
-        <v>4</v>
-      </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>29</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -4951,7 +5018,7 @@
         <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4966,7 +5033,7 @@
         <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ25" t="n">
         <v>21</v>
@@ -4975,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>19</v>
@@ -4996,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
@@ -5005,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J26" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.415</v>
+        <v>0.418</v>
       </c>
       <c r="O26" t="n">
         <v>18.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S26" t="n">
         <v>32.5</v>
       </c>
       <c r="T26" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U26" t="n">
         <v>22.9</v>
       </c>
       <c r="V26" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W26" t="n">
         <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z26" t="n">
         <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="AB26" t="n">
         <v>106.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE26" t="n">
         <v>2</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>4</v>
@@ -5136,16 +5203,16 @@
         <v>10</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5157,7 +5224,7 @@
         <v>5</v>
       </c>
       <c r="AS26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT26" t="n">
         <v>7</v>
@@ -5166,13 +5233,13 @@
         <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
@@ -5187,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -5216,94 +5283,94 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>13</v>
       </c>
       <c r="G27" t="n">
-        <v>0.316</v>
+        <v>0.278</v>
       </c>
       <c r="H27" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>84.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L27" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M27" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O27" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="P27" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R27" t="n">
         <v>11.4</v>
       </c>
       <c r="S27" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="T27" t="n">
-        <v>42.5</v>
+        <v>42.1</v>
       </c>
       <c r="U27" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V27" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>3.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
         <v>23.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.1</v>
+        <v>-3.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5312,46 +5379,46 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS27" t="n">
         <v>21</v>
       </c>
-      <c r="AO27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>17</v>
-      </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
         <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5363,10 +5430,10 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BC27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5515,16 +5582,16 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5533,10 +5600,10 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5682,13 +5749,13 @@
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
@@ -5715,13 +5782,13 @@
         <v>13</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
@@ -5730,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="BB29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -5762,19 +5829,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.174</v>
+        <v>0.182</v>
       </c>
       <c r="H30" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
         <v>34.8</v>
@@ -5786,40 +5853,40 @@
         <v>0.429</v>
       </c>
       <c r="L30" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="M30" t="n">
-        <v>17.2</v>
+        <v>17.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.326</v>
+        <v>0.329</v>
       </c>
       <c r="O30" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P30" t="n">
         <v>22.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.739</v>
+        <v>0.731</v>
       </c>
       <c r="R30" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U30" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="V30" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="W30" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
@@ -5828,13 +5895,13 @@
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>92.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="AC30" t="n">
         <v>-10</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>17</v>
@@ -5879,19 +5946,19 @@
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>30</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>27</v>
@@ -5900,16 +5967,16 @@
         <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
@@ -5944,94 +6011,94 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>0.45</v>
+        <v>0.474</v>
       </c>
       <c r="H31" t="n">
         <v>49.3</v>
       </c>
       <c r="I31" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.44</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M31" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.384</v>
+        <v>0.394</v>
       </c>
       <c r="O31" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.736</v>
+        <v>0.74</v>
       </c>
       <c r="R31" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="S31" t="n">
         <v>31.1</v>
       </c>
       <c r="T31" t="n">
-        <v>41.6</v>
+        <v>41.3</v>
       </c>
       <c r="U31" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="V31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W31" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
         <v>4.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE31" t="n">
         <v>16</v>
       </c>
-      <c r="AE31" t="n">
-        <v>18</v>
-      </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
@@ -6043,46 +6110,46 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN31" t="n">
         <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT31" t="n">
         <v>22</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>20</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6091,10 +6158,10 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-9-2013-14</t>
+          <t>2013-12-09</t>
         </is>
       </c>
     </row>
